--- a/ListasCh/public/lista-chequeo.xlsx
+++ b/ListasCh/public/lista-chequeo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando T\Escritorio\web3100\webapp-lista-chequeo(v2)\ListasCh\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando T\Escritorio\PROGRAMACION\web3100\webapp-lista-chequeo(v2)\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BB16B-E993-4CAA-9DB6-06C552D3CFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE814C0D-F8B3-4E4A-B06E-22016A3F1F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-75" windowWidth="20730" windowHeight="11040" tabRatio="894" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" tabRatio="894" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLA DE CONTENIDO" sheetId="3" r:id="rId1"/>
@@ -19,14 +19,18 @@
     <sheet name="CONSENTIMIENTO INFORMADO" sheetId="4" r:id="rId4"/>
     <sheet name="PERSONAL DE ALIMENTOS" sheetId="5" r:id="rId5"/>
     <sheet name="PREPARACION ALIMENTOS" sheetId="6" r:id="rId6"/>
-    <sheet name="MODELO" sheetId="7" r:id="rId7"/>
+    <sheet name="LAVADO DE MANOS" sheetId="8" r:id="rId7"/>
+    <sheet name="MANEJO DE RESIDUOS" sheetId="9" r:id="rId8"/>
+    <sheet name="TRASLADO DE PACIENTE" sheetId="10" r:id="rId9"/>
+    <sheet name="RONDA DE SEGURIDAD - PROF. IND)" sheetId="11" r:id="rId10"/>
+    <sheet name="MODELO" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="243">
   <si>
     <t>Criterio</t>
   </si>
@@ -416,6 +420,346 @@
   </si>
   <si>
     <t>TT-DISTRIBUCION</t>
+  </si>
+  <si>
+    <t>El trabajador de la salud realiza higiene de manos</t>
+  </si>
+  <si>
+    <t>Antes del contacto con cada paciente</t>
+  </si>
+  <si>
+    <t>Antes de realizar un procedimiento limpio y aséptico</t>
+  </si>
+  <si>
+    <t>Después del riesgo de contacto con fluidos orgánicos</t>
+  </si>
+  <si>
+    <t>Después de haber estado en contacto con el paciente</t>
+  </si>
+  <si>
+    <t>Después de haber estado en contacto con el entorno del paciente</t>
+  </si>
+  <si>
+    <t>El trabajador tiene las uñas sin esmalte o con esmalte transparente integro</t>
+  </si>
+  <si>
+    <t>El largo de las uñas del trabajador es inferior a 0.5 Cm. Del lecho ungueal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El personal de salud no porta accesorios en manos </t>
+  </si>
+  <si>
+    <t>Conoce el personal el protocolo de lavado de manos</t>
+  </si>
+  <si>
+    <t>Existe en todos los puntos de atención lavamanos</t>
+  </si>
+  <si>
+    <t>Los lavamanos que existen en los puntos de atención cuentan con suministro de agua permanente, jabón, toallas y demás</t>
+  </si>
+  <si>
+    <t>El personal cuenta con disponibilidad de alcohol glicerinado y aplica el instructivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mojesé las manos con agua </t>
+  </si>
+  <si>
+    <t>Deposita en la palma de la mano una cantidad de jabón suficiente para cubrir toda la superficie de las manos</t>
+  </si>
+  <si>
+    <t>Frota las palmas de las manos entre si</t>
+  </si>
+  <si>
+    <t>Frota la palma de la mano derecha contra el dorso de la mano izquierda entrelazando los dedos y viceversa</t>
+  </si>
+  <si>
+    <t>Frota las palmas de las manos entre sí, con dedos entrelazados.</t>
+  </si>
+  <si>
+    <t>Frota el dorso de los dedos de una mano con la palma de la mano opuesta, agarrándose los dedos.</t>
+  </si>
+  <si>
+    <t>Frota con un movimiento de rotación el pulgar izquierdo atrapándolo con la palma de la mano derecha y viceversa</t>
+  </si>
+  <si>
+    <t>Frota la punta de los dedos de la mano derecha contra la palma de la mano izquierda, haciendo un movimiento de rotación, y viceversa</t>
+  </si>
+  <si>
+    <t>Se enjuaga las manos con agua</t>
+  </si>
+  <si>
+    <t>Se seca las manos con toalla de un solo uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilice la toalla para cerra la llave de agua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sus manos son seguras </t>
+  </si>
+  <si>
+    <t>T-TÉCNICA DE LAVADO DE MANOS</t>
+  </si>
+  <si>
+    <t>TT-LISTA CHEQUEO LAVADO DE MANOS</t>
+  </si>
+  <si>
+    <t>T-MOMENTOS DE HIGIENE DE MANOS</t>
+  </si>
+  <si>
+    <t>Está disponible en el servicio el Protocolo de lavado de manos</t>
+  </si>
+  <si>
+    <t>TT- VERIFICACION DE APLICACIÓN DEL HABLADOR DE LAVADO DE MANOS</t>
+  </si>
+  <si>
+    <t>Las canecas rojas en todas las áreas se encuentran funcionando adecuadamente: tapa y pedal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas las canecas cuentan con bolsas de su mismo color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cuenta con documento para la gestión de residuos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El personal de aseo está capacitado en las diluciones </t>
+  </si>
+  <si>
+    <t>Se cumple con el horario y frecuencia de recolección de los residuos.</t>
+  </si>
+  <si>
+    <t>Se cumple con procedimientos de limpieza y diligenciamiento de formato del consultorio</t>
+  </si>
+  <si>
+    <t>Indicación del traslado</t>
+  </si>
+  <si>
+    <t>Solicitud de movilización: diligenciamiento del formato de referencia de pacientes en caso de requerirse, resumen de historia clínica, mecanismos tecnológicos que permitan realizar el proceso      ( correo, entre otros)</t>
+  </si>
+  <si>
+    <t>Comprobar identidad del paciente y procedimiento de la orden medica.</t>
+  </si>
+  <si>
+    <t>Preparación del paciente de acuerdo al nivel de riesgo</t>
+  </si>
+  <si>
+    <t>Preparacion de la documentacion del paciente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar al paciente de su traslado de acuerdo a orden medica
+</t>
+  </si>
+  <si>
+    <t>Informar a familiares del traslado de paciente de acuerdo a orden medica</t>
+  </si>
+  <si>
+    <t>Ajuste del tratamiento farmacologico, si requiere.</t>
+  </si>
+  <si>
+    <t>llamado de transporte de ambulancia.</t>
+  </si>
+  <si>
+    <t>Medidas para el traslado: Uso de camilla o silla de ruedas en caso de ser necesario.</t>
+  </si>
+  <si>
+    <t>Uso de cinturon de seguridad para el paciente y el funcionario que lo acompañe.</t>
+  </si>
+  <si>
+    <t>Vigilar el estado del paciente.</t>
+  </si>
+  <si>
+    <t>Adecuada ubicación del paciente de acuerdo a al lesion que presente.</t>
+  </si>
+  <si>
+    <t>Formatos de referencia del paciente</t>
+  </si>
+  <si>
+    <t>Resultados de apoyos diagnósticos realizados al paciente.</t>
+  </si>
+  <si>
+    <t>Resumen de historia clinica</t>
+  </si>
+  <si>
+    <t>La referencia de pacientes que se detecten como víctimas de violencia sexual serán remitidas al servicio de urgencias.</t>
+  </si>
+  <si>
+    <t>Durante la estancia del paciente en el lugar de destino se debe seguir proporcionando los cuidados necesarios para mantenerlo estable.</t>
+  </si>
+  <si>
+    <t>Si el servicio de destino se hace cargo del paciente, el funcionario a cargo del transporte debe entregar medicación, documentos y demás pertenencias del usuario</t>
+  </si>
+  <si>
+    <t>Al llegar de nuevo a la unidad de origen, se debe situar al paciente en habitación y cama según el caso.</t>
+  </si>
+  <si>
+    <t>Revisión constante del estado de salud del paciente, orden médica y dispositivos según requiera</t>
+  </si>
+  <si>
+    <t>En caso de que se detecten como victimas de violencia sexual se activara, ruta de atención a víctimas de violencia sexual y serán reportadas a SIVIGILA con su referente</t>
+  </si>
+  <si>
+    <t>TT- LISTA DE CHEQUEO TRASLADO DE PACIENTES (REFERENCIA)</t>
+  </si>
+  <si>
+    <t>El personal de limpieza y desinfección cuenta con la dotación adecuada?</t>
+  </si>
+  <si>
+    <t>El personal de limpieza y desinfección utiliza adecuadamente los elementos de protección personal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El personal conoce el protocolo de aseo, limpieza y desinfección en el área verificada </t>
+  </si>
+  <si>
+    <t>El procedimiento de limpieza y desinfección se realiza teniendo en cuenta empezar de lo mas limpio a lo mas contaminado o de adentro hacia afuera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al revisar el área, en pisos, paredes, techos, ventanas, mobiliario y equipos. se encuentra novedades (sucio, regado, mojado) </t>
+  </si>
+  <si>
+    <t>Se llevan planillas de registro del proceso de limpieza y desinfección de cada área</t>
+  </si>
+  <si>
+    <t>El cuarto de aseo se mantiene en buenas condiciones de limpieza y desinfección y los elementos están rotulados con el nombre del servicio donde se utilizan y en buenas condiciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los lavamanos que existen en los puntos de atención cuentan con suministro de agua permanente </t>
+  </si>
+  <si>
+    <t>Los lavamanos cuentan con dispensadores de jabón con producto disponible, alcohol glicerinado y toallas de papel</t>
+  </si>
+  <si>
+    <t>El personal realiza el lavado de manos en los 5 momentos y realizando los 11 pasos para efectuar un adecuado lavado de manos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El personal conoce la política de seguridad del paciente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El personal conoce como se realiza un reporte de seguridad del paciente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El personal conoce que es un evento adverso y un incidente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El perosnal conoce las barreras de seguridad del paciente y su importancia </t>
+  </si>
+  <si>
+    <t>Cuenta con contenedores según código de colores suficientes para el servicio.</t>
+  </si>
+  <si>
+    <t>Los guardianes utilizados están debidamente rotulados, utilizados y ubicados y en buen estado.</t>
+  </si>
+  <si>
+    <t>Se cuenta con formatos de limpieza de contenedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El DTR se encuentra en orden, aseo, limpieza y presenta formatos de limpieza </t>
+  </si>
+  <si>
+    <t>El personal realiza una adecuada segregación, disposición de residuos y similares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se evidencia adecuada clasificación de residuos </t>
+  </si>
+  <si>
+    <t>Existen Elementos de protección personal dentro del servicio o área, de acuerdo con las necesidades y se les da su correcto uso.</t>
+  </si>
+  <si>
+    <t>No se evidencia consumo de alimentos dentro del servicio.</t>
+  </si>
+  <si>
+    <t>El personal conoce el procedimiento en caso de accidente con riesgo biológico</t>
+  </si>
+  <si>
+    <t>El personal utiliza guantes para la manipulación de insumos</t>
+  </si>
+  <si>
+    <t>El personal de salud utiliza accesorios pequeños, uñas cortas, sin esmalte y uniforme con calzado limpio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El personal de salud conoce medidas preventivas de infecciones cruzadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo el personal asistencial en salud mantiene el pelo recogido y usa permanentemente el gorro donde aplique </t>
+  </si>
+  <si>
+    <t>Se cumple adecuadamente con el protocolo de esterilización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cuenta con material estéril en buenas condiciones y suficiente en el servicio </t>
+  </si>
+  <si>
+    <t>El instrumental es debidamente empacado, rotulado con la fecha y nombre del responsable, y contenido del paquete sellado con cinta testigo de manera individual o por grupos de atención</t>
+  </si>
+  <si>
+    <t>Existe buena iluminación y  pasamanos en pasillos, baños y vías de circulación</t>
+  </si>
+  <si>
+    <t>Las vías de circulación están despejadas</t>
+  </si>
+  <si>
+    <t>Los pisos  están en buenas condiciones</t>
+  </si>
+  <si>
+    <t>Hay señalización de piso húmedo en momentos de aseo</t>
+  </si>
+  <si>
+    <t>Se realiza acompañamiento a los pacientes que presenten discapacidades neurológicas, sensoriales, osteomusculares, adultos mayores que asistan solos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El paciente y familiar recibieron educación en cuanto a su atención </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se permite el acceso y acompañamiento de cuidador según lo pertinente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cuenta con educación a paciente y familia en autocuidado de bioseguridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se educa al paciente y familia en lavado de manos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cuenta con dotación de baños para que el paciente y familiar que cumplan con las medidas de lavado de manos </t>
+  </si>
+  <si>
+    <t>Se llama al paciente utilizando nombres completos al ingreso de la consulta</t>
+  </si>
+  <si>
+    <t>Se solicita el documento de identidad del usuario, familiar, acompañante y/o acudiente</t>
+  </si>
+  <si>
+    <t>Se Informa al usuario la importancia de asistir a las citas programadas con un documento de identificación y/o carnet del programa al que pertenece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se verifica identificación de paciente antes de todo procedimiento </t>
+  </si>
+  <si>
+    <t>T-LISTA DE CHEQUEO - RONDA DE SEGURIDAD</t>
+  </si>
+  <si>
+    <t>TT-HIGIENE DE MANOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT-CULTURA DE SEGURIDAD </t>
+  </si>
+  <si>
+    <t>TT-PGIRASA</t>
+  </si>
+  <si>
+    <t>TT-MEDIDAS DE BIOSEGURIDAD</t>
+  </si>
+  <si>
+    <t>TT-PROCESO DE ESTERILIZACIÓN</t>
+  </si>
+  <si>
+    <t>TT-PREVENCIÓN DE CAÍDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT-EDUCACIÓN PACIENTE FAMILIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-NIVEL DE CUMPLIMIENTO DE EDUCACIÓN PACIENTE  FAMILIA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT-IDENTIFICACIÓN CORRECTA DEL PACIENTE </t>
   </si>
 </sst>
 </file>
@@ -474,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -483,6 +827,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,6 +1169,335 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120A7DE4-046B-4BA2-95BF-F7472EE8C357}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA368CF3-524C-4931-89EF-545FE7F097D2}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
@@ -1114,9 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FFBEEB-A428-47EC-959D-419D091935E8}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1315,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16520F0C-1B26-44F8-974E-86CCDF784754}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1738,13 +2421,380 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA368CF3-524C-4931-89EF-545FE7F097D2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548B6E16-CA28-4FC3-914D-820CCAE5BC94}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C2FCDF-D2ED-4696-9E83-3CBBB86B6AE3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" activeCellId="4" sqref="A3:XFD3 A5:XFD5 A7:XFD7 A9:XFD9 A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DD03EA-65E3-4EDE-AFEE-37F3D0661D30}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ListasCh/public/lista-chequeo.xlsx
+++ b/ListasCh/public/lista-chequeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando T\Escritorio\PROGRAMACION\web3100\webapp-lista-chequeo(v2)\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE814C0D-F8B3-4E4A-B06E-22016A3F1F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD21D8A0-E0A9-4284-94C4-D84F48A89DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" tabRatio="894" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="894" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLA DE CONTENIDO" sheetId="3" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="TRASLADO DE PACIENTE" sheetId="10" r:id="rId9"/>
     <sheet name="RONDA DE SEGURIDAD - PROF. IND)" sheetId="11" r:id="rId10"/>
     <sheet name="MODELO" sheetId="7" r:id="rId11"/>
+    <sheet name="CAMBIO DIRECCION IPS" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="252">
   <si>
     <t>Criterio</t>
   </si>
@@ -760,6 +761,33 @@
   </si>
   <si>
     <t xml:space="preserve">TT-IDENTIFICACIÓN CORRECTA DEL PACIENTE </t>
+  </si>
+  <si>
+    <t>2. Declaración de la Autoevaluación.</t>
+  </si>
+  <si>
+    <t>3. Documento de Existencia y Representación Legal actualizado, de acuerdo al tipo de entidad.</t>
+  </si>
+  <si>
+    <t>5. Certificado de seguridad de la edificación.</t>
+  </si>
+  <si>
+    <t>7. Copia del plan hospitalario para emergencias.</t>
+  </si>
+  <si>
+    <t>8. Copia del plan de mantenimiento de la planta física incluido equipamiento fijo.</t>
+  </si>
+  <si>
+    <t>4. Copia de la licencia de construcción. ( &gt;Es exigible edificaciones donde funcione el prestador, construidas, ampliadas o remodeladas con posterioridad al 2 de diciembre de 1996.; &gt;Para prestadores ubicados en edificaciones de uso mixto construidas, ampliadas o remodeladas con posterioridadal 2 de diciembre de 1996, se solicitará el permiso otorgado por la propiedad horizontal para la adecuación en la edificación de servicios de salud, y la licencia de construcción de la edificación. )</t>
+  </si>
+  <si>
+    <t>6. Copia del estudio de vulnerabilidad estructural, (&gt;Sólo será exigible a prestadores con servicios de urgencias, servicios de cirugía, o de unidad de cuidado intensivo neonatal, pediátrico, adulto, de acuerdo con lo establecido en la NSR 10 que funcionen en edificaciones construidas con anterioridad al 2010.)</t>
+  </si>
+  <si>
+    <t>9. Certificado de conformidad de las instalaciones eléctricas. (&gt;Para prestadores que funcionen en edificaciones construidas con anterioridad a mayo del 2005, se solicitará una certificación expedida por un profesional competente en la cual certifique que las instalaciones eléctricas de la edificación donde se prestan los servicios de salud, no representan alto riesgo para la salud y la vida de las personas y animales, o atenten contra el medio ambiente. Adicionalmente el prestador deberá presentar un plan de ajustes de las instalaciones eléctricas. &gt;Para prestadores que funcionen en edificaciones construidas con posterioridad a mayo del 2005, o edificaciones adaptadas como instituciones de salud, se solicitará una certificación expedida por un organismo de inspección acreditado por la ONAC)</t>
+  </si>
+  <si>
+    <t>1. Formulario de Novedad.</t>
   </si>
 </sst>
 </file>
@@ -818,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -831,12 +859,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120A7DE4-046B-4BA2-95BF-F7472EE8C357}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,11 +1213,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1477,7 +1499,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,6 +1513,82 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C48067-A842-4EF3-82F9-6ABE699CC7AD}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/ListasCh/public/lista-chequeo.xlsx
+++ b/ListasCh/public/lista-chequeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando T\Escritorio\PROGRAMACION\web3100\webapp-lista-chequeo(v2)\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD21D8A0-E0A9-4284-94C4-D84F48A89DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872AEE55-D86F-47CD-971A-9D026E3ECEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="894" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="253">
   <si>
     <t>Criterio</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>1. Formulario de Novedad.</t>
+  </si>
+  <si>
+    <t>TT-LISTA DE CHEQUEO - DOCUMENTOS CAMBIO DOMICILIO IPS</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/ListasCh/public/lista-chequeo.xlsx
+++ b/ListasCh/public/lista-chequeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando T\Escritorio\PROGRAMACION\web3100\webapp-lista-chequeo(v2)\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872AEE55-D86F-47CD-971A-9D026E3ECEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64612A8F-03D7-4F6D-A57E-CCCB37C8DC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="894" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" tabRatio="894" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLA DE CONTENIDO" sheetId="3" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="RONDA DE SEGURIDAD - PROF. IND)" sheetId="11" r:id="rId10"/>
     <sheet name="MODELO" sheetId="7" r:id="rId11"/>
     <sheet name="CAMBIO DIRECCION IPS" sheetId="12" r:id="rId12"/>
+    <sheet name="PGRSA - RESIDUOS" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="293">
   <si>
     <t>Criterio</t>
   </si>
@@ -791,13 +792,133 @@
   </si>
   <si>
     <t>TT-LISTA DE CHEQUEO - DOCUMENTOS CAMBIO DOMICILIO IPS</t>
+  </si>
+  <si>
+    <t>1.2 El generador tiene conformado el grupo de gestión ambiental y sanitario para garantizar la gestión interna de los residuos generados en la atención en salud y otras actividades y formula un compromiso institucional.</t>
+  </si>
+  <si>
+    <t>1.3 El grupo conformado establece de manera clara las funciones de cada uno de los miembros, la coordinación, cuenta con un organigrama y cumple con las frecuencias de reunión establecidas en el marco normativo legal vigente</t>
+  </si>
+  <si>
+    <t>1.4 El grupo conformado establece de manera clara un cronograma para las actividades de gestión interna</t>
+  </si>
+  <si>
+    <t>1.5 El generador realiza un diagnóstico ambiental y sanitario actualizado anualmente teniendo en cuenta las actividades y criterios más relevantes establecidos en el numeral 7.1.2 MPGIRH de la Resolución 1164 de 2002</t>
+  </si>
+  <si>
+    <t>2.1 El generador cuenta con un programa de formación y educación con los temas de formación general y específica para el personal operativo, asistencial, usuarios y visitantes de acuerdo a los lineamientos establecidos en el marco normativo legal vigente (7.2.2 MPGIRH de la resolución 1164 de 2002 art 2.8 10.6 Decreto 780 de 2016.</t>
+  </si>
+  <si>
+    <t>2.2 El generador cuenta con soportes que evidencie la aplicación y evaluación el programa de formación y educación numeral (7.2.2 MPGIRH de la resolución 1164 de 2002 , actas de asistencia, cronograma de asistencia, evaluaciones, ayudas audiovisuales, folletos)</t>
+  </si>
+  <si>
+    <t>3.1 El establecimiento se encuentra conectado a la red del sistema de acueducto</t>
+  </si>
+  <si>
+    <t>3.2 El establecimiento cuenta con suministro de agua potable (art. 7 Resolución 4445 de 1996)</t>
+  </si>
+  <si>
+    <t>3.3 Calcula y analiza los indicadores de destinación, capacitación, beneficios, accidentalidad (numeral 7.2.10 MPGIRH de la resolución 1164 de 2002).</t>
+  </si>
+  <si>
+    <t>3.4 El generador realiza auditorías internas a la gestión de los residuos generados, se realizan acciones y planes de mejoramiento  (numeral 7.2.10 MPGIRH de la resolución 1164 de 2002).</t>
+  </si>
+  <si>
+    <t>3.5 El generador realiza interventorías a las empresas que realizan la recolección externa y tratamiento de los residuos generados en el establecimiento de acuerdo a lo establecido en el marco normativo numeral (7.2.10 MPGIRH de la resolución 1164 de 2002).</t>
+  </si>
+  <si>
+    <t>3.6 El generador cuenta con una lista de chequeo que permita evaluar la gestión interna de los residuos mediante las auditorías internas y las interventorías al gestor contratado (numeral 7.1.2 y 7.2.10 MPGIRH de la resolución 1164 de 2002).</t>
+  </si>
+  <si>
+    <t>4.1 El generador entrega y repone los elementos de protección personal para garantizar la gestión interna de los residuos generados en la atención en salud, numeral 7.2.9 MPGIRH de la resolución 1164 de 2002 art 2.8.10.6 decreto 780 del 2016</t>
+  </si>
+  <si>
+    <t>4.2 El personal que manipula los residuos mantiene en completo estado de asepsia y limpieza el equipo de protección personal numeral 7.2.9.1 MPGIRH de la resolución 1164 de 2002</t>
+  </si>
+  <si>
+    <t>4.3 El generador cuenta con un plan de contingencia para dar respuesta a aquellas situaciones relacionadas con la gestión de residuos como sismos, incendios, interrupción del suministro de agua o energía eléctrica, problemas en el servicio de reconexión externa de residuos, suspensión de actividades por parte del generador, alteraciones del orden público acumulación de residuos en áreas de almacenamiento derrame de residuos (biológicos, químicos) y ruptura de bolsas accidentales e incidentes en la recolección de residuos numeral 7.2.9.2  MPGIRH de la resolución 1164 de 2002</t>
+  </si>
+  <si>
+    <t>4.4 El generador dispone de los elementos de primeros auxilios numeral 7.2.9.1 MPGIRH de la resolución 1164 de 2002</t>
+  </si>
+  <si>
+    <t>5.1 El generador cuenta con una correcta clasificación de los residuos generados en la atención en salud de acuerdo con lo establecido en el diagnostico ambiental, los servicios actividades generadas art. 28 10 5 Decreto 780 de 2016</t>
+  </si>
+  <si>
+    <t>5.2 En todas las áreas del establecimiento el generador tiene ubicado de manera estratégica suficientes recipientes retornables con su respectivo empaque para el depósito y acopio inicial de residuos generados cumpliendo con las caracterizas establecidas, el código de colores, condiciones de rotulado y especificaciones técnicas establecidas en el marco normativo numeral 7.2.3 MPGIRH de la resolución 1164 de 2002.</t>
+  </si>
+  <si>
+    <t>5.3 Los recipientes retornables cuentan con su respectivo empaque (bolsas desechables) cumpliendo estas con las condiciones de rotulado y especificaciones técnicas establecidas en el marco normativo 7.2.3 MPGIRH de la resolución 1164 de 2002.</t>
+  </si>
+  <si>
+    <t>5.4 En todas las áreas del establecimiento el generador tiene ubicado de manera segura y estratégica suficientes recipientes para residuos, cortopunzantes cumpliendo con las características establecidas, el código de colores condiciones de rotulo y capacidad suficiente y optima segregación numeral 7.2.3 MPGIRH de la resolución 1164 de 2002.</t>
+  </si>
+  <si>
+    <t>5.5 El generador cuenta con un procedimiento para limpieza y desinfección de recipientes retornables, vehículos de recolección y EPP (numeral 7.2.3 MPGIRH de la resolución 1164 de 2002).</t>
+  </si>
+  <si>
+    <t>6.1 El generador cuenta con un procedimiento de trabajo seguro, escrito, planificado y estandarizado, donde se especifique las frecuencias, tipo de residuos, tipo de vehículo, evacuación inmediata en caso de salas de cirugía y parto, , los elementos de protección personal y los procedimientos de manejo de cargas para garantizar la recolección de los residuos generados numeral 7.2.5.1 MPGIRH de la resolución 1164 de 2002</t>
+  </si>
+  <si>
+    <t>6.2 El generador cuenta con diagramas identificando las rutas internas de transporte y cada punto de generación: el, numero, color y capacidad de los recipientes a utilizar, así como el tipo de residuo generado numeral 7.2.5.1 MPGIRH de la resolución 1164 de 2002</t>
+  </si>
+  <si>
+    <t>6.3 El generador cuenta con vehículos Por tipo de residuos para realizar el movimiento interno de residuos cumpliendo con las características establecidas en el marco normativo numeral  7.2.5.1 MPGIRH de la resolución 1164 de 2002</t>
+  </si>
+  <si>
+    <t>7.1 Establecimiento acorde a sus condiciones de operación, índices de generación de residuos, cuenta con almacenamiento temporal y central de residuos, no peligrosos, biológicos-infecciosos y con otras características , cumple con las disposiciones establecidas en los numerales 7.2.6.1 y 7.2.6.2  MPGIRH de la resolución 1164 de 2002</t>
+  </si>
+  <si>
+    <t>7.2 El generador cuenta con un procedimiento de limpieza y desinfección de los sitios de almacenamiento temporal y central</t>
+  </si>
+  <si>
+    <t>8.1 El establecimiento de acuerdo a sus condiciones de operación índices de generación de residuos, cuenta con áreas para el almacenamiento temporal y central de residuos  no peligrosos, biológicos-infecciosos y con otras características , cumple con las disposiciones establecidas en los numerales 7.2.6.1 y 7.2.6.2  MPGIRH de la resolución 1164 de 2002</t>
+  </si>
+  <si>
+    <t>9.1 El generador cuenta con área exclusiva para la limpieza y desinfección de recipientes retornables, vehículos para el movimiento interno de residuos</t>
+  </si>
+  <si>
+    <t>9.2 El establecimiento suministra guardarropa, unidad sanitaria sitios y estanterías exclusivas para el almacenamiento de los elementos de protección personal mantenidas las óptimas condiciones de aseo.</t>
+  </si>
+  <si>
+    <t>1.1 El generador tiene formulado, implementado y actualizado un plan para la gestión integral de los residuos hospitalarios y similares PGRSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-1. GRUPO ADMINISTRATIVO DE GESTION AMBIENTAL Y SANITARIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-2. PROGRAMA DE FORMACIÓN Y EDUCACIÓN </t>
+  </si>
+  <si>
+    <t>T-3. MONITOREO AL PGRSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-4. CONDICIONES DE SEGURIDAD Y GESTION DEL RIESGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-5. SEGREGACIÓN DE RESIDUOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-6. MOVIMIENTO INTERNO DE RESIDUOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-7. ALMACENAMIENTO DE RESIDUOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-8 DESACTIVACION Y TRATAMIENTO DE RESIDUOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-9 INFRAESTRUCTURA COMPLEMENTARIA PARA LA GESTION INTERNA DE LOS RESIDUOS </t>
+  </si>
+  <si>
+    <t>TT-GESTION INTEGRAL DE RESIDUOS - PGRSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,6 +928,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -849,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -864,6 +994,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1527,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C48067-A842-4EF3-82F9-6ABE699CC7AD}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1592,6 +1726,232 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C077E37-386A-4914-9CE8-AC35B091C99B}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
